--- a/Plancheck/check_protocol/STEC foie DCA.xlsx
+++ b/Plancheck/check_protocol/STEC foie DCA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -448,9 +448,6 @@
     <t>CTV</t>
   </si>
   <si>
-    <t>PTVplanning</t>
-  </si>
-  <si>
     <t>Foie-GTV</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>D0,5cc&lt;37Gy</t>
+  </si>
+  <si>
+    <t>Planning</t>
   </si>
 </sst>
 </file>
@@ -2659,8 +2659,8 @@
   </sheetPr>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -2765,7 +2765,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2906,7 +2906,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2961,21 +2961,21 @@
         <v>118</v>
       </c>
       <c r="B2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>149</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -2985,31 +2985,31 @@
         <v>134</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>154</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -3019,7 +3019,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
@@ -3029,7 +3029,7 @@
         <v>135</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -3039,13 +3039,13 @@
         <v>130</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="D9" s="34" t="s">
         <v>161</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3053,19 +3053,19 @@
         <v>129</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>164</v>
       </c>
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
@@ -3075,10 +3075,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>166</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>167</v>
       </c>
       <c r="D12" s="34"/>
     </row>
@@ -3087,22 +3087,22 @@
         <v>123</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="C14" s="34" t="s">
         <v>170</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>171</v>
       </c>
       <c r="D14" s="34"/>
     </row>
